--- a/Zignaly_Balance_Report.xlsx
+++ b/Zignaly_Balance_Report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,122 @@
       </c>
       <c r="H3" t="n">
         <v>-3339.382828</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>274359</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ZignalyX120</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2473.836192</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45684.3625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2473.836192</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-865.5466359999996</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>274360</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>deposit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ZignalyX120</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2248.541933</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45685.3625</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2248.541933</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1382.995297</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>274361</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>deposit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ZignalyX120</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4878.462957</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45686.3625</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4878.462957</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6261.458254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>274362</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>withdrawal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ZignalyX120</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Zignaly678d4</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1467.275087</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45687.3625</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1467.275087</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4794.183167</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +699,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3339.382828</v>
+        <v>4794.183167</v>
       </c>
     </row>
     <row r="3">
@@ -593,7 +709,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9600.841081999999</v>
       </c>
     </row>
     <row r="4">
@@ -603,7 +719,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3339.382828</v>
+        <v>4806.657915</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,21 +756,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>deposit</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3065.920854</v>
+        <v>7127.00489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-3065.920854</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>loss</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>-273.461974</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2473.836192</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>withdrawal</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1467.275087</v>
       </c>
     </row>
   </sheetData>
